--- a/data/trans_bre/P1416-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P1416-Habitat-trans_bre.xlsx
@@ -649,7 +649,7 @@
         <v>0.3035916729856281</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>0.3550328134763931</v>
+        <v>0.355032813476393</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.7140627708706084</v>
+        <v>0.8048923063082815</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-0.02154478321022717</v>
+        <v>-0.1612748607085029</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-1.028951920861368</v>
+        <v>-1.073565906278899</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-0.1557854333389275</v>
+        <v>-0.03225926400309588</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.1032648158995072</v>
+        <v>0.1068276976648284</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.03408604827784447</v>
+        <v>-0.03728749371508897</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.2003921169155291</v>
+        <v>-0.1800204352026663</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.02061588084150368</v>
+        <v>-0.00674153563851009</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>6.022393040393133</v>
+        <v>6.079576434277455</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>4.757886329089627</v>
+        <v>4.658951975159173</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>3.672773017912379</v>
+        <v>3.843371471711455</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>6.043054531968234</v>
+        <v>6.102261377191729</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>1.469657592792822</v>
+        <v>1.487562730696009</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>1.529551981649145</v>
+        <v>1.518394464005801</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>1.129249082734487</v>
+        <v>1.167597444898232</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.8252997928680774</v>
+        <v>0.8666993435056159</v>
       </c>
     </row>
     <row r="7">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-0.3860831550837872</v>
+        <v>-0.1112144170200838</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-0.128138091178287</v>
+        <v>-0.1025152424646417</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>2.60804505461161</v>
+        <v>2.610684953120627</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-1.800484119798428</v>
+        <v>-1.477467420384883</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.04477800654337561</v>
+        <v>-0.01411347333333597</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.02223925975173576</v>
+        <v>-0.03165575351819951</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.4569990035168001</v>
+        <v>0.415252528562249</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.1622962348111182</v>
+        <v>-0.1294330162610425</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>4.900602224381627</v>
+        <v>4.975032772448456</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>4.707810224378208</v>
+        <v>4.4499943626623</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>7.141425535470251</v>
+        <v>7.066352298557818</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>3.707096232315444</v>
+        <v>3.686720717686499</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.8025041300841391</v>
+        <v>0.8250389348064904</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>1.023034575099605</v>
+        <v>0.9567714584958393</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>2.024530153259053</v>
+        <v>1.917151169562512</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.4887142907621847</v>
+        <v>0.4701559402994481</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>4.606239287527885</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>1.543562885607086</v>
+        <v>1.543562885607087</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.4678342350837956</v>
@@ -849,7 +849,7 @@
         <v>1.312258373791732</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.1308352695885022</v>
+        <v>0.1308352695885023</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.06715280707238083</v>
+        <v>0.3969650313177325</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-1.624330266356906</v>
+        <v>-1.47709679107926</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>2.288499054634358</v>
+        <v>2.243677468475517</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-2.208002262259646</v>
+        <v>-2.004941029472311</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.01635250738058791</v>
+        <v>0.04798316133870299</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.2420575278421214</v>
+        <v>-0.2262310692676353</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.4692486165939695</v>
+        <v>0.4525534919235776</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.1640396071964794</v>
+        <v>-0.1433762876942009</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>5.307455304560092</v>
+        <v>5.743252131831129</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>3.494395472992168</v>
+        <v>3.563935299731106</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>7.150305863324966</v>
+        <v>6.899787606360978</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>4.587985702730575</v>
+        <v>5.378966752062995</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>1.105413499907685</v>
+        <v>1.195881557310843</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.8638152755191725</v>
+        <v>0.8673378234969943</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>3.007230438230717</v>
+        <v>2.687416233813211</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.4634555627535268</v>
+        <v>0.5746179707410055</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>0.934734672311946</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>3.494366119965936</v>
+        <v>3.494366119965934</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.4152030190948228</v>
@@ -949,7 +949,7 @@
         <v>0.1341618153413471</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>0.3951485499072306</v>
+        <v>0.3951485499072304</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.7157299973251035</v>
+        <v>0.6098333430906316</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.7174779839586202</v>
+        <v>0.8428345704096979</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-1.417955479749247</v>
+        <v>-1.144609844775017</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.6874760241442832</v>
+        <v>0.7607177942873964</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.07691042125784128</v>
+        <v>0.06505946686098735</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1149319182776596</v>
+        <v>0.1342212702862416</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.1746343973163181</v>
+        <v>-0.1465562801030155</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.07319375451326172</v>
+        <v>0.07136172109692697</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>5.969816994710005</v>
+        <v>5.811369655555159</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>5.127926373832464</v>
+        <v>5.319803549967475</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>3.332062530937942</v>
+        <v>3.233885750280517</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>6.182527100149415</v>
+        <v>5.917034595238214</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.9930985200067438</v>
+        <v>0.9446784935271589</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>1.242458169222834</v>
+        <v>1.33988960417909</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.5877074848879815</v>
+        <v>0.5663235467778626</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.8463808636360162</v>
+        <v>0.7848079746900405</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>3.010031432358441</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>2.252058791228056</v>
+        <v>2.252058791228054</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.4328140102318511</v>
@@ -1049,7 +1049,7 @@
         <v>0.6100891366439811</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>0.2316181532453851</v>
+        <v>0.2316181532453848</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>1.597517952178528</v>
+        <v>1.520765922735759</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.9487374312323866</v>
+        <v>1.067442532033825</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1.892273062229956</v>
+        <v>1.747429586434055</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.6789875333690789</v>
+        <v>0.8882153721573454</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.2149115787429046</v>
+        <v>0.2084628269614865</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1516917734025253</v>
+        <v>0.1842686693701052</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3511139445811726</v>
+        <v>0.309775871619161</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>0.06157492173194098</v>
+        <v>0.08033403904285948</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>4.231508467912104</v>
+        <v>4.310981994245522</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>3.408361864284346</v>
+        <v>3.35501254435537</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>4.269127822496537</v>
+        <v>4.176637074262669</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>3.657724866513597</v>
+        <v>3.812806017662803</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.6998063156302405</v>
+        <v>0.69877039523018</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.7406307673275184</v>
+        <v>0.7384892722691967</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.9877434258020898</v>
+        <v>0.9358480126092941</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.4161546193975327</v>
+        <v>0.4352272076881335</v>
       </c>
     </row>
     <row r="19">
